--- a/Combinações Inválidas.xlsx
+++ b/Combinações Inválidas.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="7680"/>
+    <workbookView xWindow="240" yWindow="100" windowWidth="22180" windowHeight="10760"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="36">
   <si>
     <t>Erro em geração de conta</t>
   </si>
@@ -121,6 +126,9 @@
   </si>
   <si>
     <t>03430</t>
+  </si>
+  <si>
+    <t>rgretvre</t>
   </si>
 </sst>
 </file>
@@ -466,24 +474,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G25"/>
+  <dimension ref="A2:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -491,7 +499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -514,7 +522,7 @@
         <v>5113010</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -537,7 +545,7 @@
         <v>5222020</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -560,7 +568,7 @@
         <v>5300080</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -582,8 +590,11 @@
       <c r="G8">
         <v>5224010</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -606,7 +617,7 @@
         <v>5300080</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -629,7 +640,7 @@
         <v>5300040</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -652,7 +663,7 @@
         <v>6670090</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -675,7 +686,7 @@
         <v>5510010</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
@@ -698,7 +709,7 @@
         <v>5223010</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -721,7 +732,7 @@
         <v>5300040</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -744,7 +755,7 @@
         <v>5222020</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -767,7 +778,7 @@
         <v>5223010</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
@@ -790,7 +801,7 @@
         <v>5222020</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -813,7 +824,7 @@
         <v>5300050</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
@@ -836,7 +847,7 @@
         <v>5300080</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
@@ -859,7 +870,7 @@
         <v>5224010</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
@@ -882,7 +893,7 @@
         <v>5300080</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
@@ -905,7 +916,7 @@
         <v>5224010</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
@@ -928,7 +939,7 @@
         <v>5510010</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
         <v>15</v>
       </c>
@@ -951,7 +962,7 @@
         <v>5224010</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
@@ -976,7 +987,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -986,9 +1002,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -998,8 +1019,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Combinações Inválidas.xlsx
+++ b/Combinações Inválidas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="36">
   <si>
     <t>Erro em geração de conta</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>03430</t>
+  </si>
+  <si>
+    <t>teste</t>
   </si>
 </sst>
 </file>
@@ -466,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G25"/>
+  <dimension ref="A2:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,12 +481,12 @@
     <col min="2" max="2" width="41.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -491,7 +494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -514,7 +517,7 @@
         <v>5113010</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -536,8 +539,11 @@
       <c r="G6">
         <v>5222020</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -560,7 +566,7 @@
         <v>5300080</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -583,7 +589,7 @@
         <v>5224010</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -606,7 +612,7 @@
         <v>5300080</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -629,7 +635,7 @@
         <v>5300040</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -652,7 +658,7 @@
         <v>6670090</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -675,7 +681,7 @@
         <v>5510010</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
@@ -698,7 +704,7 @@
         <v>5223010</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -721,7 +727,7 @@
         <v>5300040</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -744,7 +750,7 @@
         <v>5222020</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>

--- a/Combinações Inválidas.xlsx
+++ b/Combinações Inválidas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="38">
   <si>
     <t>Erro em geração de conta</t>
   </si>
@@ -124,6 +124,12 @@
   </si>
   <si>
     <t>teste</t>
+  </si>
+  <si>
+    <t>lesma</t>
+  </si>
+  <si>
+    <t>mula</t>
   </si>
 </sst>
 </file>
@@ -472,7 +478,7 @@
   <dimension ref="A2:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,6 +571,9 @@
       <c r="G7">
         <v>5300080</v>
       </c>
+      <c r="J7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -587,6 +596,9 @@
       </c>
       <c r="G8">
         <v>5224010</v>
+      </c>
+      <c r="J8" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">

--- a/Combinações Inválidas.xlsx
+++ b/Combinações Inválidas.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="7680"/>
+    <workbookView xWindow="240" yWindow="100" windowWidth="20640" windowHeight="9820"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="37">
   <si>
     <t>Erro em geração de conta</t>
   </si>
@@ -124,6 +129,9 @@
   </si>
   <si>
     <t>teste</t>
+  </si>
+  <si>
+    <t>babaca</t>
   </si>
 </sst>
 </file>
@@ -472,21 +480,21 @@
   <dimension ref="A2:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -494,7 +502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -517,7 +525,7 @@
         <v>5113010</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -543,7 +551,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -565,8 +573,11 @@
       <c r="G7">
         <v>5300080</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -589,7 +600,7 @@
         <v>5224010</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -612,7 +623,7 @@
         <v>5300080</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -635,7 +646,7 @@
         <v>5300040</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -658,7 +669,7 @@
         <v>6670090</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -681,7 +692,7 @@
         <v>5510010</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
@@ -704,7 +715,7 @@
         <v>5223010</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -727,7 +738,7 @@
         <v>5300040</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -750,7 +761,7 @@
         <v>5222020</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -773,7 +784,7 @@
         <v>5223010</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
@@ -796,7 +807,7 @@
         <v>5222020</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -819,7 +830,7 @@
         <v>5300050</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
@@ -842,7 +853,7 @@
         <v>5300080</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
@@ -865,7 +876,7 @@
         <v>5224010</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
@@ -888,7 +899,7 @@
         <v>5300080</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
@@ -911,7 +922,7 @@
         <v>5224010</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
@@ -934,7 +945,7 @@
         <v>5510010</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
         <v>15</v>
       </c>
@@ -957,7 +968,7 @@
         <v>5224010</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
@@ -982,7 +993,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -992,9 +1008,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1004,8 +1025,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>